--- a/data/simulation_input.xlsx
+++ b/data/simulation_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEDF28D-7BB7-384A-9B5B-F2C187BEFAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C79D59E-9400-B54B-9458-8DB2AD293379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8380" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{8D530716-A5A5-884E-A1EF-2775436591A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>wind_cap</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>hydro_storage_price</t>
-  </si>
-  <si>
-    <t>grid_connection</t>
   </si>
 </sst>
 </file>
@@ -464,100 +461,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B980E-8246-6D4A-AA5E-C7CBF5A2A6AD}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/data/simulation_input.xlsx
+++ b/data/simulation_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C79D59E-9400-B54B-9458-8DB2AD293379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCB70D9-2FC5-CC41-91FA-BA21A814F8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{8D530716-A5A5-884E-A1EF-2775436591A8}"/>
+    <workbookView xWindow="4820" yWindow="24000" windowWidth="28040" windowHeight="17440" xr2:uid="{8D530716-A5A5-884E-A1EF-2775436591A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>wind_cap</t>
   </si>
@@ -86,10 +86,16 @@
     <t>battery_8h_price</t>
   </si>
   <si>
-    <t>hydro_mw</t>
-  </si>
-  <si>
     <t>hydro_storage_price</t>
+  </si>
+  <si>
+    <t>wind_excess_energy_price</t>
+  </si>
+  <si>
+    <t>solar_excess_energy_price</t>
+  </si>
+  <si>
+    <t>hydro_storage_mw</t>
   </si>
 </sst>
 </file>
@@ -461,44 +467,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B980E-8246-6D4A-AA5E-C7CBF5A2A6AD}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,46 +522,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/simulation_input.xlsx
+++ b/data/simulation_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCB70D9-2FC5-CC41-91FA-BA21A814F8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB88773-F5E6-544F-B485-4A79C4530575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="24000" windowWidth="28040" windowHeight="17440" xr2:uid="{8D530716-A5A5-884E-A1EF-2775436591A8}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/simulation_input.xlsx
+++ b/data/simulation_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB88773-F5E6-544F-B485-4A79C4530575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45B45B8-71EC-A640-8F95-AFF8936E20E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="24000" windowWidth="28040" windowHeight="17440" xr2:uid="{8D530716-A5A5-884E-A1EF-2775436591A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>wind_cap</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>hydro_storage_price</t>
-  </si>
-  <si>
-    <t>wind_excess_energy_price</t>
-  </si>
-  <si>
-    <t>solar_excess_energy_price</t>
   </si>
   <si>
     <t>hydro_storage_mw</t>
@@ -467,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B980E-8246-6D4A-AA5E-C7CBF5A2A6AD}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,10 +473,10 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
@@ -491,24 +485,22 @@
     <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="37" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,51 +514,45 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
       <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/simulation_input.xlsx
+++ b/data/simulation_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45B45B8-71EC-A640-8F95-AFF8936E20E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513C462D-7EF7-484F-9BAA-5F118518B167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="24000" windowWidth="28040" windowHeight="17440" xr2:uid="{8D530716-A5A5-884E-A1EF-2775436591A8}"/>
   </bookViews>
@@ -86,10 +86,10 @@
     <t>battery_8h_price</t>
   </si>
   <si>
-    <t>hydro_storage_price</t>
-  </si>
-  <si>
-    <t>hydro_storage_mw</t>
+    <t>battery_12h_mw</t>
+  </si>
+  <si>
+    <t>battery_12h_price</t>
   </si>
 </sst>
 </file>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B980E-8246-6D4A-AA5E-C7CBF5A2A6AD}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
